--- a/data/talleres.xlsx
+++ b/data/talleres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mahousanmiguel-my.sharepoint.com/personal/dvictoresg_mahou-sanmiguel_com/Documents/Escritorio/Registro Motoagitadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7686C302-6FF4-44BB-B916-B0F5E11FC238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{7686C302-6FF4-44BB-B916-B0F5E11FC238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58C83E76-0D58-4FEC-A2A0-A4BEF022327A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,10 +58,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,8 +93,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,7 +380,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -392,46 +400,46 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>8258</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>8742</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>8248</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>8214</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/talleres.xlsx
+++ b/data/talleres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mahousanmiguel-my.sharepoint.com/personal/dvictoresg_mahou-sanmiguel_com/Documents/Escritorio/Registro Motoagitadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{7686C302-6FF4-44BB-B916-B0F5E11FC238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58C83E76-0D58-4FEC-A2A0-A4BEF022327A}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{7686C302-6FF4-44BB-B916-B0F5E11FC238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AABA9DDD-D030-46B6-A863-27C4F1238E46}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -389,10 +389,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
@@ -406,7 +406,7 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -417,7 +417,7 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -428,7 +428,7 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -439,9 +439,133 @@
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
